--- a/Saleel Tables/EMPLOYEE Table.xlsx
+++ b/Saleel Tables/EMPLOYEE Table.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="5" r:id="rId1"/>
-    <sheet name="UNNORMALIZED TABLE" sheetId="6" r:id="rId2"/>
-    <sheet name="1st NF" sheetId="7" r:id="rId3"/>
-    <sheet name="2nd NF" sheetId="8" r:id="rId4"/>
-    <sheet name="3rd NF" sheetId="9" r:id="rId5"/>
+    <sheet name="EMPDEPT" sheetId="10" r:id="rId2"/>
+    <sheet name="UNNORMALIZED TABLE" sheetId="6" r:id="rId3"/>
+    <sheet name="1st NF" sheetId="7" r:id="rId4"/>
+    <sheet name="2nd NF" sheetId="8" r:id="rId5"/>
+    <sheet name="3rd NF" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -189,9 +190,6 @@
     <t>LOCATION</t>
   </si>
   <si>
-    <t>EMPLOYEE_DEPT</t>
-  </si>
-  <si>
     <t>DEPTID(FK)</t>
   </si>
   <si>
@@ -220,6 +218,63 @@
   </si>
   <si>
     <t>EMAILID</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_DEPTPARTMENT</t>
+  </si>
+  <si>
+    <t>EMPLOYEEDETAIL</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_DEPTEPARTMENT</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_DEPTARTMENT</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>MGR</t>
+  </si>
+  <si>
+    <t>BONUSID</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>DNAME</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>DEMPNO (PK)</t>
+  </si>
+  <si>
+    <t>EMPNO(PK)</t>
+  </si>
+  <si>
+    <t>DEPTNO (FK)</t>
+  </si>
+  <si>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>REATE</t>
+  </si>
+  <si>
+    <t>SALGRAQDE</t>
+  </si>
+  <si>
+    <t>LOSAL</t>
+  </si>
+  <si>
+    <t>HISAL</t>
   </si>
 </sst>
 </file>
@@ -348,14 +403,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,12 +736,12 @@
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -696,18 +751,18 @@
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="K1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="K1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -974,23 +1029,23 @@
       <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>50</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -1015,10 +1070,10 @@
         <v>31</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1201,7 +1256,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>14</v>
@@ -1210,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>14</v>
@@ -1227,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>16</v>
@@ -1321,13 +1376,13 @@
     </row>
     <row r="32" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="K32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>47</v>
@@ -1352,13 +1407,13 @@
         <v>12</v>
       </c>
       <c r="L34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="N34" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.25">
@@ -1383,6 +1438,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B22"/>
   <sheetViews>
@@ -1505,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B22"/>
   <sheetViews>
@@ -1631,12 +1800,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,16 +1813,16 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -1774,7 +1943,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1784,7 +1953,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1860,7 +2029,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1935,35 +2104,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E36"/>
+  <dimension ref="B1:E38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2088,7 +2257,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -2096,214 +2265,233 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="9"/>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+    <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="2:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E37" t="s">
         <v>60</v>
       </c>
-      <c r="E35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
         <v>12</v>
       </c>
     </row>
